--- a/tests/test_expected/multi/SHACL-classb.xlsx
+++ b/tests/test_expected/multi/SHACL-classb.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-05 15:39:15</t>
+          <t>2026-02-11 14:41:53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1360,7 +1360,11 @@
           <t>title</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The title</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>1</v>
@@ -1373,11 +1377,7 @@
           <t>sh:Literal</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>xsd:string</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1387,11 +1387,21 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>dash:LiteralViewer</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>dash:TextFieldEditor</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/test_expected/multi/SHACL-classb.xlsx
+++ b/tests/test_expected/multi/SHACL-classb.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,57 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>https://www.w3.org/ns/dcat#</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>custom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://example.com/custom#</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dash</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://datashapes.org/dash#</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/shacl#</t>
         </is>
       </c>
     </row>
@@ -644,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-11 14:41:53</t>
+          <t>2026-02-12 10:20:26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
